--- a/import_exportModels/import_exportModelsList_appCore.xlsx
+++ b/import_exportModels/import_exportModelsList_appCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\import_exportModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A0496A-D36F-4AA6-BD11-5DC0958D30D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CEC8B3-79EF-4656-94AD-67E8BC9C6BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-315" yWindow="120" windowWidth="28770" windowHeight="15270" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelli Import" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>Cod. Modello Import</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Formato menù locali</t>
+  </si>
+  <si>
+    <t>YBPC1 / YAX3MBPC</t>
   </si>
 </sst>
 </file>
@@ -133,12 +136,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -190,11 +199,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -475,15 +485,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -496,9 +618,9 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -514,7 +636,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -526,7 +648,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -536,31 +658,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5597488-5EAB-462E-AD07-010A92D90CA8}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="15" max="15" width="17.5546875" customWidth="1"/>
+    <col min="16" max="16" width="21.109375" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,32 +744,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
